--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tgfb1-Tgfbr3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Tgfb1-Tgfbr3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>51.59157666666667</v>
+        <v>54.69462833333333</v>
       </c>
       <c r="H2">
-        <v>154.77473</v>
+        <v>164.083885</v>
       </c>
       <c r="I2">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="J2">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>23.68145933333333</v>
+        <v>28.689524</v>
       </c>
       <c r="N2">
-        <v>71.04437799999999</v>
+        <v>86.06857199999999</v>
       </c>
       <c r="O2">
-        <v>0.2340556429375698</v>
+        <v>0.2394085694101769</v>
       </c>
       <c r="P2">
-        <v>0.2340556429375698</v>
+        <v>0.2394085694101769</v>
       </c>
       <c r="Q2">
-        <v>1221.763824774216</v>
+        <v>1569.162852240246</v>
       </c>
       <c r="R2">
-        <v>10995.87442296794</v>
+        <v>14122.46567016222</v>
       </c>
       <c r="S2">
-        <v>0.06181995956810253</v>
+        <v>0.06681712225322294</v>
       </c>
       <c r="T2">
-        <v>0.06181995956810253</v>
+        <v>0.06681712225322294</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>51.59157666666667</v>
+        <v>54.69462833333333</v>
       </c>
       <c r="H3">
-        <v>154.77473</v>
+        <v>164.083885</v>
       </c>
       <c r="I3">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="J3">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>187.398952</v>
       </c>
       <c r="O3">
-        <v>0.6173856880862099</v>
+        <v>0.5212694246546397</v>
       </c>
       <c r="P3">
-        <v>0.6173856880862099</v>
+        <v>0.5212694246546395</v>
       </c>
       <c r="Q3">
-        <v>3222.735799786996</v>
+        <v>3416.572009898724</v>
       </c>
       <c r="R3">
-        <v>29004.62219808296</v>
+        <v>30749.14808908852</v>
       </c>
       <c r="S3">
-        <v>0.163067028832947</v>
+        <v>0.1454823566250159</v>
       </c>
       <c r="T3">
-        <v>0.163067028832947</v>
+        <v>0.1454823566250159</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>51.59157666666667</v>
+        <v>54.69462833333333</v>
       </c>
       <c r="H4">
-        <v>154.77473</v>
+        <v>164.083885</v>
       </c>
       <c r="I4">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="J4">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>14.948048</v>
+        <v>28.525746</v>
       </c>
       <c r="N4">
-        <v>44.844144</v>
+        <v>85.57723799999999</v>
       </c>
       <c r="O4">
-        <v>0.1477389942931862</v>
+        <v>0.2380418734454457</v>
       </c>
       <c r="P4">
-        <v>0.1477389942931862</v>
+        <v>0.2380418734454457</v>
       </c>
       <c r="Q4">
-        <v>771.1933644090134</v>
+        <v>1560.20507540107</v>
       </c>
       <c r="R4">
-        <v>6940.74027968112</v>
+        <v>14041.84567860963</v>
       </c>
       <c r="S4">
-        <v>0.03902156999595616</v>
+        <v>0.06643568773906411</v>
       </c>
       <c r="T4">
-        <v>0.03902156999595616</v>
+        <v>0.06643568773906409</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>51.59157666666667</v>
+        <v>54.69462833333333</v>
       </c>
       <c r="H5">
-        <v>154.77473</v>
+        <v>164.083885</v>
       </c>
       <c r="I5">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="J5">
-        <v>0.2641250550177588</v>
+        <v>0.2790924419198448</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.08293366666666667</v>
+        <v>0.1534046666666667</v>
       </c>
       <c r="N5">
-        <v>0.248801</v>
+        <v>0.460214</v>
       </c>
       <c r="O5">
-        <v>0.0008196746830341778</v>
+        <v>0.001280132489737778</v>
       </c>
       <c r="P5">
-        <v>0.0008196746830341778</v>
+        <v>0.001280132489737778</v>
       </c>
       <c r="Q5">
-        <v>4.278678622081111</v>
+        <v>8.390411227932223</v>
       </c>
       <c r="R5">
-        <v>38.50810759873</v>
+        <v>75.51370105139</v>
       </c>
       <c r="S5">
-        <v>0.0002164966207530662</v>
+        <v>0.000357275302541847</v>
       </c>
       <c r="T5">
-        <v>0.0002164966207530662</v>
+        <v>0.000357275302541847</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,16 +785,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>19.32115333333333</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H6">
-        <v>57.96346</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I6">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="J6">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.68145933333333</v>
+        <v>28.689524</v>
       </c>
       <c r="N6">
-        <v>71.04437799999999</v>
+        <v>86.06857199999999</v>
       </c>
       <c r="O6">
-        <v>0.2340556429375698</v>
+        <v>0.2394085694101769</v>
       </c>
       <c r="P6">
-        <v>0.2340556429375698</v>
+        <v>0.2394085694101769</v>
       </c>
       <c r="Q6">
-        <v>457.553106936431</v>
+        <v>554.3146922643467</v>
       </c>
       <c r="R6">
-        <v>4117.97796242788</v>
+        <v>4988.83223037912</v>
       </c>
       <c r="S6">
-        <v>0.0231517041162167</v>
+        <v>0.02360348545525844</v>
       </c>
       <c r="T6">
-        <v>0.0231517041162167</v>
+        <v>0.02360348545525844</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>19.32115333333333</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H7">
-        <v>57.96346</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I7">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="J7">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>187.398952</v>
       </c>
       <c r="O7">
-        <v>0.6173856880862099</v>
+        <v>0.5212694246546397</v>
       </c>
       <c r="P7">
-        <v>0.6173856880862099</v>
+        <v>0.5212694246546395</v>
       </c>
       <c r="Q7">
         <v>1206.921295365991</v>
@@ -883,10 +883,10 @@
         <v>10862.29165829392</v>
       </c>
       <c r="S7">
-        <v>0.06106894325111969</v>
+        <v>0.05139237627716974</v>
       </c>
       <c r="T7">
-        <v>0.06106894325111969</v>
+        <v>0.05139237627716973</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,16 +909,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>19.32115333333333</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H8">
-        <v>57.96346</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I8">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="J8">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.948048</v>
+        <v>28.525746</v>
       </c>
       <c r="N8">
-        <v>44.844144</v>
+        <v>85.57723799999999</v>
       </c>
       <c r="O8">
-        <v>0.1477389942931862</v>
+        <v>0.2380418734454457</v>
       </c>
       <c r="P8">
-        <v>0.1477389942931862</v>
+        <v>0.2380418734454457</v>
       </c>
       <c r="Q8">
-        <v>288.8135274420266</v>
+        <v>551.1503124137201</v>
       </c>
       <c r="R8">
-        <v>2599.32174697824</v>
+        <v>4960.352811723481</v>
       </c>
       <c r="S8">
-        <v>0.01461365955280817</v>
+        <v>0.02346874178921186</v>
       </c>
       <c r="T8">
-        <v>0.01461365955280817</v>
+        <v>0.02346874178921186</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>19.32115333333333</v>
+        <v>19.32115333333334</v>
       </c>
       <c r="H9">
-        <v>57.96346</v>
+        <v>57.96346000000001</v>
       </c>
       <c r="I9">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="J9">
-        <v>0.09891538535728449</v>
+        <v>0.09859081282432611</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.08293366666666667</v>
+        <v>0.1534046666666667</v>
       </c>
       <c r="N9">
-        <v>0.248801</v>
+        <v>0.460214</v>
       </c>
       <c r="O9">
-        <v>0.0008196746830341778</v>
+        <v>0.001280132489737778</v>
       </c>
       <c r="P9">
-        <v>0.0008196746830341778</v>
+        <v>0.001280132489737778</v>
       </c>
       <c r="Q9">
-        <v>1.602374090162222</v>
+        <v>2.963955086715556</v>
       </c>
       <c r="R9">
-        <v>14.42136681146</v>
+        <v>26.67559578044001</v>
       </c>
       <c r="S9">
-        <v>8.107843713993571E-05</v>
+        <v>0.0001262093026860758</v>
       </c>
       <c r="T9">
-        <v>8.107843713993571E-05</v>
+        <v>0.0001262093026860758</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.044915</v>
+        <v>11.023718</v>
       </c>
       <c r="H10">
-        <v>36.134745</v>
+        <v>33.071154</v>
       </c>
       <c r="I10">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486912</v>
       </c>
       <c r="J10">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486911</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.68145933333333</v>
+        <v>28.689524</v>
       </c>
       <c r="N10">
-        <v>71.04437799999999</v>
+        <v>86.06857199999999</v>
       </c>
       <c r="O10">
-        <v>0.2340556429375698</v>
+        <v>0.2394085694101769</v>
       </c>
       <c r="P10">
-        <v>0.2340556429375698</v>
+        <v>0.2394085694101769</v>
       </c>
       <c r="Q10">
-        <v>285.2411647459567</v>
+        <v>316.265222130232</v>
       </c>
       <c r="R10">
-        <v>2567.17048271361</v>
+        <v>2846.386999172088</v>
       </c>
       <c r="S10">
-        <v>0.01443290177216717</v>
+        <v>0.01346701012030013</v>
       </c>
       <c r="T10">
-        <v>0.01443290177216717</v>
+        <v>0.01346701012030013</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.044915</v>
+        <v>11.023718</v>
       </c>
       <c r="H11">
-        <v>36.134745</v>
+        <v>33.071154</v>
       </c>
       <c r="I11">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486912</v>
       </c>
       <c r="J11">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486911</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>187.398952</v>
       </c>
       <c r="O11">
-        <v>0.6173856880862099</v>
+        <v>0.5212694246546397</v>
       </c>
       <c r="P11">
-        <v>0.6173856880862099</v>
+        <v>0.5212694246546395</v>
       </c>
       <c r="Q11">
-        <v>752.4014826430268</v>
+        <v>688.6110667811787</v>
       </c>
       <c r="R11">
-        <v>6771.61334378724</v>
+        <v>6197.499601030609</v>
       </c>
       <c r="S11">
-        <v>0.03807072061948478</v>
+        <v>0.0293220106302872</v>
       </c>
       <c r="T11">
-        <v>0.03807072061948478</v>
+        <v>0.02932201063028719</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.044915</v>
+        <v>11.023718</v>
       </c>
       <c r="H12">
-        <v>36.134745</v>
+        <v>33.071154</v>
       </c>
       <c r="I12">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486912</v>
       </c>
       <c r="J12">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486911</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.948048</v>
+        <v>28.525746</v>
       </c>
       <c r="N12">
-        <v>44.844144</v>
+        <v>85.57723799999999</v>
       </c>
       <c r="O12">
-        <v>0.1477389942931862</v>
+        <v>0.2380418734454457</v>
       </c>
       <c r="P12">
-        <v>0.1477389942931862</v>
+        <v>0.2380418734454457</v>
       </c>
       <c r="Q12">
-        <v>180.04796757592</v>
+        <v>314.459779643628</v>
       </c>
       <c r="R12">
-        <v>1620.43170818328</v>
+        <v>2830.138016792652</v>
       </c>
       <c r="S12">
-        <v>0.00911023706068508</v>
+        <v>0.01339013188476431</v>
       </c>
       <c r="T12">
-        <v>0.00911023706068508</v>
+        <v>0.01339013188476431</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.044915</v>
+        <v>11.023718</v>
       </c>
       <c r="H13">
-        <v>36.134745</v>
+        <v>33.071154</v>
       </c>
       <c r="I13">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486912</v>
       </c>
       <c r="J13">
-        <v>0.06166440420330686</v>
+        <v>0.05625116157486911</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.08293366666666667</v>
+        <v>0.1534046666666667</v>
       </c>
       <c r="N13">
-        <v>0.248801</v>
+        <v>0.460214</v>
       </c>
       <c r="O13">
-        <v>0.0008196746830341778</v>
+        <v>0.001280132489737778</v>
       </c>
       <c r="P13">
-        <v>0.0008196746830341778</v>
+        <v>0.001280132489737778</v>
       </c>
       <c r="Q13">
-        <v>0.9989289656383334</v>
+        <v>1.691089785217333</v>
       </c>
       <c r="R13">
-        <v>8.990360690745</v>
+        <v>15.219808066956</v>
       </c>
       <c r="S13">
-        <v>5.054475096983697E-05</v>
+        <v>7.200893951747922E-05</v>
       </c>
       <c r="T13">
-        <v>5.054475096983697E-05</v>
+        <v>7.20089395174792E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>112.3724673333333</v>
+        <v>110.9336623333333</v>
       </c>
       <c r="H14">
-        <v>337.117402</v>
+        <v>332.800987</v>
       </c>
       <c r="I14">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="J14">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>23.68145933333333</v>
+        <v>28.689524</v>
       </c>
       <c r="N14">
-        <v>71.04437799999999</v>
+        <v>86.06857199999999</v>
       </c>
       <c r="O14">
-        <v>0.2340556429375698</v>
+        <v>0.2394085694101769</v>
       </c>
       <c r="P14">
-        <v>0.2340556429375698</v>
+        <v>0.2394085694101769</v>
       </c>
       <c r="Q14">
-        <v>2661.144015340662</v>
+        <v>3182.633967920061</v>
       </c>
       <c r="R14">
-        <v>23950.29613806595</v>
+        <v>28643.70571128056</v>
       </c>
       <c r="S14">
-        <v>0.1346510774810834</v>
+        <v>0.1355209515813954</v>
       </c>
       <c r="T14">
-        <v>0.1346510774810834</v>
+        <v>0.1355209515813954</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>112.3724673333333</v>
+        <v>110.9336623333333</v>
       </c>
       <c r="H15">
-        <v>337.117402</v>
+        <v>332.800987</v>
       </c>
       <c r="I15">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="J15">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>187.398952</v>
       </c>
       <c r="O15">
-        <v>0.6173856880862099</v>
+        <v>0.5212694246546397</v>
       </c>
       <c r="P15">
-        <v>0.6173856880862099</v>
+        <v>0.5212694246546395</v>
       </c>
       <c r="Q15">
-        <v>7019.494203973633</v>
+        <v>6929.617354262847</v>
       </c>
       <c r="R15">
-        <v>63175.4478357627</v>
+        <v>62366.55618836562</v>
       </c>
       <c r="S15">
-        <v>0.3551789953826583</v>
+        <v>0.2950726811221668</v>
       </c>
       <c r="T15">
-        <v>0.3551789953826583</v>
+        <v>0.2950726811221667</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>112.3724673333333</v>
+        <v>110.9336623333333</v>
       </c>
       <c r="H16">
-        <v>337.117402</v>
+        <v>332.800987</v>
       </c>
       <c r="I16">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="J16">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>14.948048</v>
+        <v>28.525746</v>
       </c>
       <c r="N16">
-        <v>44.844144</v>
+        <v>85.57723799999999</v>
       </c>
       <c r="O16">
-        <v>0.1477389942931862</v>
+        <v>0.2380418734454457</v>
       </c>
       <c r="P16">
-        <v>0.1477389942931862</v>
+        <v>0.2380418734454457</v>
       </c>
       <c r="Q16">
-        <v>1679.749035577099</v>
+        <v>3164.465474570433</v>
       </c>
       <c r="R16">
-        <v>15117.74132019389</v>
+        <v>28480.1892711339</v>
       </c>
       <c r="S16">
-        <v>0.0849935276837368</v>
+        <v>0.1347473120324054</v>
       </c>
       <c r="T16">
-        <v>0.0849935276837368</v>
+        <v>0.1347473120324054</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>112.3724673333333</v>
+        <v>110.9336623333333</v>
       </c>
       <c r="H17">
-        <v>337.117402</v>
+        <v>332.800987</v>
       </c>
       <c r="I17">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="J17">
-        <v>0.5752951554216499</v>
+        <v>0.5660655836809599</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.08293366666666667</v>
+        <v>0.1534046666666667</v>
       </c>
       <c r="N17">
-        <v>0.248801</v>
+        <v>0.460214</v>
       </c>
       <c r="O17">
-        <v>0.0008196746830341778</v>
+        <v>0.001280132489737778</v>
       </c>
       <c r="P17">
-        <v>0.0008196746830341778</v>
+        <v>0.001280132489737778</v>
       </c>
       <c r="Q17">
-        <v>9.319460748333555</v>
+        <v>17.01774149235755</v>
       </c>
       <c r="R17">
-        <v>83.87514673500199</v>
+        <v>153.159673431218</v>
       </c>
       <c r="S17">
-        <v>0.0004715548741713389</v>
+        <v>0.0007246389449923756</v>
       </c>
       <c r="T17">
-        <v>0.0004715548741713389</v>
+        <v>0.0007246389449923756</v>
       </c>
     </row>
   </sheetData>
